--- a/biology/Médecine/Paul_Moreau_de_Tours/Paul_Moreau_de_Tours.xlsx
+++ b/biology/Médecine/Paul_Moreau_de_Tours/Paul_Moreau_de_Tours.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Moreau dit « de Tours », né le 5 juillet 1844 à Ivry-sur-Seine, où il meurt le 29 décembre 1908, est un médecin aliéniste français. 
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils du psychiatre Jacques Joseph Moreau de Tours, Paul Moreau fait ses études de médecine à Paris, où il soutient en 1875 une thèse de médecine intitulée De la contagion du suicide : à propos de l'épidémie actuelle. Il suit l'enseignement de son père à l'Hôpital de la Salpêtrière, et consacre sa carrière à la psychopathologie, à la criminologie et, plus généralement, aux comportements « déviants » (selon les critères de l’époque). Il est reconnu surtout pour un ouvrage sur la pathologie de l’instinct sexuel : Des aberrations du sens génésique (1880), une des premières études à tenter une approche générale du sujet[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils du psychiatre Jacques Joseph Moreau de Tours, Paul Moreau fait ses études de médecine à Paris, où il soutient en 1875 une thèse de médecine intitulée De la contagion du suicide : à propos de l'épidémie actuelle. Il suit l'enseignement de son père à l'Hôpital de la Salpêtrière, et consacre sa carrière à la psychopathologie, à la criminologie et, plus généralement, aux comportements « déviants » (selon les critères de l’époque). Il est reconnu surtout pour un ouvrage sur la pathologie de l’instinct sexuel : Des aberrations du sens génésique (1880), une des premières études à tenter une approche générale du sujet.
 Élu membre titulaire de la Société médico-psychologique le 15 mai 1877, il en devient président en 1895. Il succède à Jules Luys comme directeur de la maison de santé d’Ivry-sur-Seine, où il meurt à 64 ans.
 Il est le frère du peintre Georges Moreau de Tours (1848-1901), auteur du tableau Les fascinés de la Charité représentant Jules Luys et Gérard Encausse.
 </t>
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De la contagion du suicide : à propos de l'épidémie actuelle, Paris, Parent, 1875 (lire en ligne)
 Des troubles intellectuels dus à l'intoxication lente par le gaz oxyde de carbone, Paris, Asselin, 1876 (lire en ligne)
@@ -556,7 +572,7 @@
 Fous et bouffons, étude physiologique, psychologique et historique, Paris, Baillière, 1885 (lire en ligne)
 De la folie chez les enfants, Paris, Baillière, 1888 (lire en ligne)
 Les Excentriques : étude psychologique et anecdotique, Paris, Société d'éditions scientifiques, 1894 (lire en ligne)
-Edgar Poe - Étude de psychologie morbide, Annales médico-psychologiques[2] - 1894
+Edgar Poe - Étude de psychologie morbide, Annales médico-psychologiques - 1894
 Suicides et crimes étranges, Paris, Société d'éditions scientifiques, 1899 (lire en ligne) - Réédition L'Harmattan, 2000  (ISBN 2-7384-8788-2)</t>
         </is>
       </c>
@@ -585,7 +601,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Notices d'autorité : VIAF ISNI BnF (données) IdRef LCCN GND Pays-Bas Pologne Israël Vatican Norvège Tchéquie Grèce WorldCat 
 Pierre Morel : Dictionnaire biographique de la psychiatrie, Les empêcheurs de penser en rond, 1995  (ISBN 2908602687)</t>
